--- a/results/rate_progression.xlsx
+++ b/results/rate_progression.xlsx
@@ -26,7 +26,6 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -593,11 +592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-692443616"/>
-        <c:axId val="-692446880"/>
+        <c:axId val="-1645350768"/>
+        <c:axId val="-1645346960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-692443616"/>
+        <c:axId val="-1645350768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -635,7 +634,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>target</a:t>
+                  <a:t>preferenc</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0">
@@ -643,7 +642,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> preference rate</a:t>
+                  <a:t>e probability</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE">
                   <a:solidFill>
@@ -710,13 +709,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-692446880"/>
+        <c:crossAx val="-1645346960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-692446880"/>
+        <c:axId val="-1645346960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -757,7 +756,7 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>relative difference for ESL to CL</a:t>
+                  <a:t>relative difference for F-ESL to F-CL</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE" sz="1000">
                   <a:solidFill>
@@ -823,7 +822,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-692443616"/>
+        <c:crossAx val="-1645350768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1500,81 +1499,155 @@
     <sheetNames>
       <sheetName val="charts"/>
       <sheetName val="analysis"/>
+      <sheetName val="2016-01-04-4"/>
+      <sheetName val="2017-05-01-5"/>
+      <sheetName val="2016-02-01-5"/>
+      <sheetName val="2017-08-07-4"/>
+      <sheetName val="2016-05-02-5"/>
+      <sheetName val="2016-03-07-4"/>
+      <sheetName val="2016-09-05-4"/>
+      <sheetName val="2016-08-01-5"/>
+      <sheetName val="2017-04-03-4"/>
+      <sheetName val="2017-01-09-4"/>
+      <sheetName val="2017-07-03-5"/>
+      <sheetName val="2016-04-04-4"/>
       <sheetName val="2015-11-02-5"/>
-      <sheetName val="2017-08-07-4"/>
-      <sheetName val="2016-09-05-4"/>
-      <sheetName val="2016-06-06-4"/>
-      <sheetName val="2016-03-07-4"/>
-      <sheetName val="2017-05-01-5"/>
-      <sheetName val="2016-01-04-4"/>
-      <sheetName val="2016-07-04-4"/>
-      <sheetName val="2017-09-04-4"/>
-      <sheetName val="2017-03-06-4"/>
-      <sheetName val="2017-07-03-5"/>
-      <sheetName val="2016-08-01-5"/>
+      <sheetName val="2017-10-02-5"/>
       <sheetName val="2016-10-03-5"/>
       <sheetName val="2015-12-07-4"/>
-      <sheetName val="2017-10-02-5"/>
-      <sheetName val="2016-02-01-5"/>
-      <sheetName val="2016-04-04-4"/>
-      <sheetName val="2017-04-03-4"/>
-      <sheetName val="2016-05-02-5"/>
+      <sheetName val="2017-09-04-4"/>
+      <sheetName val="2016-07-04-4"/>
+      <sheetName val="2017-03-06-4"/>
+      <sheetName val="2017-02-06-4"/>
+      <sheetName val="2016-11-07-4"/>
       <sheetName val="2016-12-05-5"/>
-      <sheetName val="2016-11-07-4"/>
       <sheetName val="2017-06-05-4"/>
-      <sheetName val="2017-02-06-4"/>
-      <sheetName val="2017-01-09-4"/>
+      <sheetName val="2016-06-06-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
-          <cell r="I89">
-            <v>-3.9544513746512679</v>
-          </cell>
           <cell r="M89">
-            <v>-77.202651220576925</v>
+            <v>-86.692015209125444</v>
           </cell>
         </row>
         <row r="92">
-          <cell r="H92">
-            <v>0.18029384818231214</v>
-          </cell>
           <cell r="L92">
-            <v>-98.525499513977408</v>
+            <v>-99.563998902968393</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="charts"/>
+      <sheetName val="analysis"/>
+      <sheetName val="2015-11-02-5"/>
+      <sheetName val="2017-02-06-4"/>
+      <sheetName val="2017-01-09-4"/>
+      <sheetName val="2016-10-03-5"/>
+      <sheetName val="2017-08-07-4"/>
+      <sheetName val="2017-05-01-5"/>
+      <sheetName val="2015-12-07-4"/>
+      <sheetName val="2017-07-03-5"/>
+      <sheetName val="2017-10-02-5"/>
+      <sheetName val="2016-11-07-4"/>
+      <sheetName val="2016-03-07-4"/>
+      <sheetName val="2016-06-06-4"/>
+      <sheetName val="2016-07-04-4"/>
+      <sheetName val="2016-04-04-4"/>
+      <sheetName val="2016-12-05-5"/>
+      <sheetName val="2017-09-04-4"/>
+      <sheetName val="2016-08-01-5"/>
+      <sheetName val="2016-05-02-5"/>
+      <sheetName val="2016-01-04-4"/>
+      <sheetName val="2017-04-03-4"/>
+      <sheetName val="2017-03-06-4"/>
+      <sheetName val="2016-02-01-5"/>
+      <sheetName val="2016-09-05-4"/>
+      <sheetName val="2017-06-05-4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="89">
+          <cell r="I89">
+            <v>-12.381380091381095</v>
+          </cell>
+          <cell r="M89">
+            <v>-13.397484423222325</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="H92">
+            <v>-4.8226950354610034</v>
+          </cell>
+          <cell r="L92">
+            <v>-7.1785906401290855</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1606,7 +1679,7 @@
       <sheetName val="2017-07-03-5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -1625,325 +1698,116 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="charts"/>
-      <sheetName val="analysis"/>
-      <sheetName val="2016-01-04-4"/>
-      <sheetName val="2017-05-01-5"/>
-      <sheetName val="2016-02-01-5"/>
-      <sheetName val="2017-08-07-4"/>
-      <sheetName val="2016-05-02-5"/>
-      <sheetName val="2016-03-07-4"/>
-      <sheetName val="2016-09-05-4"/>
-      <sheetName val="2016-08-01-5"/>
-      <sheetName val="2017-04-03-4"/>
-      <sheetName val="2017-01-09-4"/>
-      <sheetName val="2017-07-03-5"/>
-      <sheetName val="2016-04-04-4"/>
-      <sheetName val="2015-11-02-5"/>
-      <sheetName val="2017-10-02-5"/>
-      <sheetName val="2016-10-03-5"/>
-      <sheetName val="2015-12-07-4"/>
-      <sheetName val="2017-09-04-4"/>
-      <sheetName val="2016-07-04-4"/>
-      <sheetName val="2017-03-06-4"/>
-      <sheetName val="2017-02-06-4"/>
-      <sheetName val="2016-11-07-4"/>
-      <sheetName val="2016-12-05-5"/>
-      <sheetName val="2017-06-05-4"/>
-      <sheetName val="2016-06-06-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="89">
-          <cell r="M89">
-            <v>-86.692015209125444</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="L92">
-            <v>-99.563998902968393</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>APS</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>ASV</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>APL</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>ALV</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>-0.12323057161976494</v>
-          </cell>
-          <cell r="E2">
-            <v>-9.181563099207686E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>0.1</v>
-          </cell>
-          <cell r="B3">
-            <v>-2.7971027175238614E-2</v>
-          </cell>
-          <cell r="C3">
-            <v>-3.7178053505118186E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>-0.23164089300678684</v>
-          </cell>
-          <cell r="E3">
-            <v>-0.11149714837440589</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.2</v>
-          </cell>
-          <cell r="B4">
-            <v>5.3382817938382983E-3</v>
-          </cell>
-          <cell r="C4">
-            <v>-7.9639926728015328E-3</v>
-          </cell>
-          <cell r="D4">
-            <v>-0.30233649734013579</v>
-          </cell>
-          <cell r="E4">
-            <v>-0.12457175817247712</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.3</v>
-          </cell>
-          <cell r="B5">
-            <v>1.6230886980694286E-2</v>
-          </cell>
-          <cell r="C5">
-            <v>-1.3086940552413839E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>-0.32328567629518573</v>
-          </cell>
-          <cell r="E5">
-            <v>-0.11515051463516163</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.4</v>
-          </cell>
-          <cell r="B6">
-            <v>-6.3418440785472374E-2</v>
-          </cell>
-          <cell r="C6">
-            <v>-2.2227778622953397E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>-0.21298388953801081</v>
-          </cell>
-          <cell r="E6">
-            <v>-0.12231013154534005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.5</v>
-          </cell>
-          <cell r="B7">
-            <v>-1.4540055900507096E-2</v>
-          </cell>
-          <cell r="C7">
-            <v>-5.8178070445915601E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>-0.10802485383342604</v>
-          </cell>
-          <cell r="E7">
-            <v>-0.15100636878708529</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.6</v>
-          </cell>
-          <cell r="B8">
-            <v>-4.1596161053225299E-2</v>
-          </cell>
-          <cell r="C8">
-            <v>-7.8348751953718293E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>-0.1449782781520764</v>
-          </cell>
-          <cell r="E8">
-            <v>-0.15075297494221235</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.7</v>
-          </cell>
-          <cell r="B9">
-            <v>-5.9482533029348784E-2</v>
-          </cell>
-          <cell r="C9">
-            <v>-9.3603952065196283E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>-0.26905048251079527</v>
-          </cell>
-          <cell r="E9">
-            <v>-0.16985860672015232</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.8</v>
-          </cell>
-          <cell r="B10">
-            <v>-0.14115539924792178</v>
-          </cell>
-          <cell r="C10">
-            <v>-0.11038859617038539</v>
-          </cell>
-          <cell r="D10">
-            <v>-0.17084212574267765</v>
-          </cell>
-          <cell r="E10">
-            <v>-0.15006777064057977</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0.9</v>
-          </cell>
-          <cell r="B11">
-            <v>-0.15566662571041948</v>
-          </cell>
-          <cell r="C11">
-            <v>-0.13492473240673331</v>
-          </cell>
-          <cell r="D11">
-            <v>-0.16615310187323939</v>
-          </cell>
-          <cell r="E11">
-            <v>-0.14708943076262754</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1</v>
-          </cell>
-          <cell r="B12">
-            <v>-7.7783515544197671E-2</v>
-          </cell>
-          <cell r="C12">
-            <v>-0.11726771819964622</v>
-          </cell>
-          <cell r="D12">
-            <v>-0.39300916062583441</v>
-          </cell>
-          <cell r="E12">
-            <v>-0.24416150652844293</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="charts"/>
+      <sheetName val="analysis"/>
+      <sheetName val="2015-11-02-5"/>
+      <sheetName val="2017-08-07-4"/>
+      <sheetName val="2016-09-05-4"/>
+      <sheetName val="2016-06-06-4"/>
+      <sheetName val="2016-03-07-4"/>
+      <sheetName val="2017-05-01-5"/>
+      <sheetName val="2016-01-04-4"/>
+      <sheetName val="2016-07-04-4"/>
+      <sheetName val="2017-09-04-4"/>
+      <sheetName val="2017-03-06-4"/>
+      <sheetName val="2017-07-03-5"/>
+      <sheetName val="2016-08-01-5"/>
+      <sheetName val="2016-10-03-5"/>
+      <sheetName val="2015-12-07-4"/>
+      <sheetName val="2017-10-02-5"/>
+      <sheetName val="2016-02-01-5"/>
+      <sheetName val="2016-04-04-4"/>
+      <sheetName val="2017-04-03-4"/>
+      <sheetName val="2016-05-02-5"/>
+      <sheetName val="2016-12-05-5"/>
+      <sheetName val="2016-11-07-4"/>
+      <sheetName val="2017-06-05-4"/>
+      <sheetName val="2017-02-06-4"/>
+      <sheetName val="2017-01-09-4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="89">
+          <cell r="I89">
+            <v>-3.9544513746512679</v>
+          </cell>
+          <cell r="M89">
+            <v>-77.202651220576925</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="H92">
+            <v>0.18029384818231214</v>
+          </cell>
+          <cell r="L92">
+            <v>-98.525499513977408</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1975,7 +1839,7 @@
       <sheetName val="2017-06-05-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -1994,36 +1858,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2055,7 +1919,7 @@
       <sheetName val="2017-01-09-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2074,36 +1938,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2135,7 +1999,7 @@
       <sheetName val="2016-03-07-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2154,36 +2018,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2215,7 +2079,7 @@
       <sheetName val="2017-10-02-5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2234,36 +2098,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2295,7 +2159,7 @@
       <sheetName val="2017-07-03-5"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2314,36 +2178,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2375,7 +2239,7 @@
       <sheetName val="2017-03-06-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2394,36 +2258,36 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2455,7 +2319,7 @@
       <sheetName val="2017-01-09-4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="89">
           <cell r="I89">
@@ -2474,110 +2338,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="charts"/>
-      <sheetName val="analysis"/>
-      <sheetName val="2015-11-02-5"/>
-      <sheetName val="2017-02-06-4"/>
-      <sheetName val="2017-01-09-4"/>
-      <sheetName val="2016-10-03-5"/>
-      <sheetName val="2017-08-07-4"/>
-      <sheetName val="2017-05-01-5"/>
-      <sheetName val="2015-12-07-4"/>
-      <sheetName val="2017-07-03-5"/>
-      <sheetName val="2017-10-02-5"/>
-      <sheetName val="2016-11-07-4"/>
-      <sheetName val="2016-03-07-4"/>
-      <sheetName val="2016-06-06-4"/>
-      <sheetName val="2016-07-04-4"/>
-      <sheetName val="2016-04-04-4"/>
-      <sheetName val="2016-12-05-5"/>
-      <sheetName val="2017-09-04-4"/>
-      <sheetName val="2016-08-01-5"/>
-      <sheetName val="2016-05-02-5"/>
-      <sheetName val="2016-01-04-4"/>
-      <sheetName val="2017-04-03-4"/>
-      <sheetName val="2017-03-06-4"/>
-      <sheetName val="2016-02-01-5"/>
-      <sheetName val="2016-09-05-4"/>
-      <sheetName val="2017-06-05-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="89">
-          <cell r="I89">
-            <v>-12.381380091381095</v>
-          </cell>
-          <cell r="M89">
-            <v>-13.397484423222325</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92">
-            <v>-4.8226950354610034</v>
-          </cell>
-          <cell r="L92">
-            <v>-7.1785906401290855</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2848,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,11 +2669,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>[11]analysis!M89/100</f>
+        <f>[1]analysis!M89/100</f>
         <v>-0.86692015209125439</v>
       </c>
       <c r="E2" s="1">
-        <f>[11]analysis!L92/100</f>
+        <f>[1]analysis!L92/100</f>
         <v>-0.99563998902968398</v>
       </c>
     </row>
@@ -2898,19 +2682,19 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="1">
-        <f>[1]analysis!H92/100</f>
+        <f>[2]analysis!H92/100</f>
         <v>1.8029384818231214E-3</v>
       </c>
       <c r="C3" s="1">
-        <f>[1]analysis!I89/100</f>
+        <f>[2]analysis!I89/100</f>
         <v>-3.9544513746512681E-2</v>
       </c>
       <c r="D3" s="1">
-        <f>[1]analysis!M89/100</f>
+        <f>[2]analysis!M89/100</f>
         <v>-0.77202651220576923</v>
       </c>
       <c r="E3" s="1">
-        <f>[1]analysis!L92/100</f>
+        <f>[2]analysis!L92/100</f>
         <v>-0.9852549951397741</v>
       </c>
     </row>
@@ -2919,19 +2703,19 @@
         <v>0.2</v>
       </c>
       <c r="B4" s="1">
-        <f>[2]analysis!H92/100</f>
+        <f>[3]analysis!H92/100</f>
         <v>-6.0692315264515212E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>[2]analysis!I89/100</f>
+        <f>[3]analysis!I89/100</f>
         <v>-0.12004148888409877</v>
       </c>
       <c r="D4" s="1">
-        <f>[2]analysis!M89/100</f>
+        <f>[3]analysis!M89/100</f>
         <v>-0.49201756662931218</v>
       </c>
       <c r="E4" s="1">
-        <f>[2]analysis!L92/100</f>
+        <f>[3]analysis!L92/100</f>
         <v>-0.9229909457783948</v>
       </c>
     </row>
@@ -2940,19 +2724,19 @@
         <v>0.3</v>
       </c>
       <c r="B5" s="1">
-        <f>[3]analysis!H92/100</f>
+        <f>[4]analysis!H92/100</f>
         <v>-0.2489942235026095</v>
       </c>
       <c r="C5" s="1">
-        <f>[3]analysis!I89/100</f>
+        <f>[4]analysis!I89/100</f>
         <v>-0.16868063124864313</v>
       </c>
       <c r="D5" s="1">
-        <f>[3]analysis!M89/100</f>
+        <f>[4]analysis!M89/100</f>
         <v>-0.3261079540532571</v>
       </c>
       <c r="E5" s="1">
-        <f>[3]analysis!L92/100</f>
+        <f>[4]analysis!L92/100</f>
         <v>-0.54680591316700755</v>
       </c>
     </row>
@@ -2961,19 +2745,19 @@
         <v>0.4</v>
       </c>
       <c r="B6" s="1">
-        <f>[4]analysis!H92/100</f>
+        <f>[5]analysis!H92/100</f>
         <v>-0.1273742279635835</v>
       </c>
       <c r="C6" s="1">
-        <f>[4]analysis!I89/100</f>
+        <f>[5]analysis!I89/100</f>
         <v>-0.16980834710834622</v>
       </c>
       <c r="D6" s="1">
-        <f>[4]analysis!M89/100</f>
+        <f>[5]analysis!M89/100</f>
         <v>-0.25790454636224369</v>
       </c>
       <c r="E6" s="1">
-        <f>[4]analysis!L92/100</f>
+        <f>[5]analysis!L92/100</f>
         <v>-0.24028230459981564</v>
       </c>
     </row>
@@ -2982,19 +2766,19 @@
         <v>0.5</v>
       </c>
       <c r="B7" s="1">
-        <f>[5]analysis!H92/100</f>
+        <f>[6]analysis!H92/100</f>
         <v>-0.11117795630053505</v>
       </c>
       <c r="C7" s="1">
-        <f>[5]analysis!I89/100</f>
+        <f>[6]analysis!I89/100</f>
         <v>-0.16883691206208443</v>
       </c>
       <c r="D7" s="1">
-        <f>[5]analysis!M89/100</f>
+        <f>[6]analysis!M89/100</f>
         <v>-0.20701701761236116</v>
       </c>
       <c r="E7" s="1">
-        <f>[5]analysis!L92/100</f>
+        <f>[6]analysis!L92/100</f>
         <v>-0.11919027101445678</v>
       </c>
     </row>
@@ -3003,19 +2787,19 @@
         <v>0.6</v>
       </c>
       <c r="B8" s="1">
-        <f>[6]analysis!H92/100</f>
+        <f>[7]analysis!H92/100</f>
         <v>-0.16408877132842697</v>
       </c>
       <c r="C8" s="1">
-        <f>[6]analysis!I89/100</f>
+        <f>[7]analysis!I89/100</f>
         <v>-0.17436787729369491</v>
       </c>
       <c r="D8" s="1">
-        <f>[6]analysis!M89/100</f>
+        <f>[7]analysis!M89/100</f>
         <v>-0.1901413456867635</v>
       </c>
       <c r="E8" s="1">
-        <f>[6]analysis!L92/100</f>
+        <f>[7]analysis!L92/100</f>
         <v>-0.16390443605007687</v>
       </c>
     </row>
@@ -3024,19 +2808,19 @@
         <v>0.7</v>
       </c>
       <c r="B9" s="1">
-        <f>[7]analysis!H92/100</f>
+        <f>[8]analysis!H92/100</f>
         <v>-0.14780862095328057</v>
       </c>
       <c r="C9" s="1">
-        <f>[7]analysis!I89/100</f>
+        <f>[8]analysis!I89/100</f>
         <v>-0.17555537249086892</v>
       </c>
       <c r="D9" s="1">
-        <f>[7]analysis!M89/100</f>
+        <f>[8]analysis!M89/100</f>
         <v>-0.18679774767028665</v>
       </c>
       <c r="E9" s="1">
-        <f>[7]analysis!L92/100</f>
+        <f>[8]analysis!L92/100</f>
         <v>-0.18636608407182617</v>
       </c>
     </row>
@@ -3045,19 +2829,19 @@
         <v>0.8</v>
       </c>
       <c r="B10" s="1">
-        <f>[8]analysis!H92/100</f>
+        <f>[9]analysis!H92/100</f>
         <v>-0.30336598965303357</v>
       </c>
       <c r="C10" s="1">
-        <f>[8]analysis!I89/100</f>
+        <f>[9]analysis!I89/100</f>
         <v>-0.22277250675444779</v>
       </c>
       <c r="D10" s="1">
-        <f>[8]analysis!M89/100</f>
+        <f>[9]analysis!M89/100</f>
         <v>-0.22425963933362023</v>
       </c>
       <c r="E10" s="1">
-        <f>[8]analysis!L92/100</f>
+        <f>[9]analysis!L92/100</f>
         <v>-0.30638820494438074</v>
       </c>
     </row>
@@ -3066,19 +2850,19 @@
         <v>0.9</v>
       </c>
       <c r="B11" s="1">
-        <f>[9]analysis!H92/100</f>
+        <f>[10]analysis!H92/100</f>
         <v>-4.8226950354610033E-2</v>
       </c>
       <c r="C11" s="1">
-        <f>[9]analysis!I89/100</f>
+        <f>[10]analysis!I89/100</f>
         <v>-0.12381380091381095</v>
       </c>
       <c r="D11" s="1">
-        <f>[9]analysis!M89/100</f>
+        <f>[10]analysis!M89/100</f>
         <v>-0.13397484423222325</v>
       </c>
       <c r="E11" s="1">
-        <f>[9]analysis!L92/100</f>
+        <f>[10]analysis!L92/100</f>
         <v>-7.1785906401290858E-2</v>
       </c>
     </row>
@@ -3087,19 +2871,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <f>[10]analysis!H92/100</f>
+        <f>[11]analysis!H92/100</f>
         <v>-0.2025370762391808</v>
       </c>
       <c r="C12" s="1">
-        <f>[10]analysis!I89/100</f>
+        <f>[11]analysis!I89/100</f>
         <v>-0.24390297824831086</v>
       </c>
       <c r="D12" s="1">
-        <f>[10]analysis!M89/100</f>
+        <f>[11]analysis!M89/100</f>
         <v>-0.25362711190178655</v>
       </c>
       <c r="E12" s="1">
-        <f>[10]analysis!L92/100</f>
+        <f>[11]analysis!L92/100</f>
         <v>-0.23244103890934428</v>
       </c>
     </row>
